--- a/平台产品基线/现场总管基线产品-测试方案.xlsx
+++ b/平台产品基线/现场总管基线产品-测试方案.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\python\平台产品基线\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="11832" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="11832" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="作业许可-需求原件" sheetId="2" r:id="rId1"/>
     <sheet name="作业许可-需求列表" sheetId="1" r:id="rId2"/>
     <sheet name="任务安排" sheetId="3" r:id="rId3"/>
-    <sheet name="时间计划" sheetId="5" r:id="rId4"/>
-    <sheet name="附表" sheetId="4" r:id="rId5"/>
+    <sheet name="开发负责人" sheetId="6" r:id="rId4"/>
+    <sheet name="时间计划" sheetId="5" r:id="rId5"/>
+    <sheet name="附表" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'作业许可-需求列表'!$A$1:$G$75</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="326">
   <si>
     <t>编号</t>
   </si>
@@ -3921,65 +3922,181 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>作业许可</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>承包商</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡检</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>监督检查</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育培训</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐患</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>发版时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果</t>
+  </si>
+  <si>
+    <t>功能需求数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能详情</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>《现场总管基线产品-作业许可-需求列表》</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>系统公共</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>作业许可</t>
+    <t>体系审核</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>承包商</t>
+    <t>风险</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>巡检</t>
+    <t>属地</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>监督检查</t>
+    <t>承包商自主</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>教育培训</t>
+    <t>宋飞</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>隐患</t>
+    <t>赵霞</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>迭代</t>
+    <t>郭志恒</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>发版时间</t>
+    <t>闫晋辉</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>内容范围</t>
+    <t>邢爽、闫晋辉</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>迭代1</t>
+    <t>段莹莹，张大伟</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>实际结果</t>
-  </si>
-  <si>
-    <t>功能需求数</t>
+    <t>张大伟</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>功能详情</t>
+    <t>原租户</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>《现场总管基线产品-作业许可-需求列表》</t>
+    <t>租户</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>新租户</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>演示租户</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津能源物流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>煤层气</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大连润华</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵燕飞</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵燕飞</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭文丹</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫晋辉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>张大伟，闫晋辉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试负责人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹斌臣</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘冠宁</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>张丰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵霞</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘冠宁，张丰</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4636,7 +4753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4695,6 +4812,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10734,8 +10854,8 @@
   </sheetPr>
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A75" sqref="A3:A75"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -12634,172 +12754,287 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>278</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>280</v>
-      </c>
       <c r="D1" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="3">
+        <v>310</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E2" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="3">
+        <v>310</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="3">
         <v>60</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="3"/>
+        <v>310</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="3"/>
+        <v>310</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="3"/>
+        <v>310</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>301</v>
+      </c>
       <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="3"/>
+        <v>310</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>301</v>
+      </c>
       <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="3"/>
+        <v>310</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>304</v>
+      </c>
       <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>301</v>
+      </c>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>302</v>
+      </c>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>302</v>
+      </c>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>301</v>
+      </c>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>319</v>
+      </c>
       <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>315</v>
+      </c>
       <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -12809,6 +13044,232 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" s="3">
+        <v>60</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -12829,13 +13290,13 @@
         <v>278</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>289</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>290</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>231</v>
@@ -12846,7 +13307,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="15">
@@ -12944,14 +13405,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -12992,10 +13453,10 @@
         <v>27</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">

--- a/平台产品基线/现场总管基线产品-测试方案.xlsx
+++ b/平台产品基线/现场总管基线产品-测试方案.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\python\平台产品基线\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pro\平台产品基线\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="11832" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="11835" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="作业许可-需求原件" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="附表" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">开发负责人!$A$1:$E$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'作业许可-需求列表'!$A$1:$G$75</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="327">
   <si>
     <t>编号</t>
   </si>
@@ -3918,10 +3919,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>负责人</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>作业许可</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4092,11 +4089,19 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>赵霞</t>
+    <t>肖振宇</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>刘冠宁，张丰</t>
+    <t>研发</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发负责人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>承包商自主培训</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -5168,13 +5173,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="8" max="8" width="41.88671875" customWidth="1"/>
-    <col min="9" max="9" width="77.33203125" customWidth="1"/>
+    <col min="8" max="8" width="41.875" customWidth="1"/>
+    <col min="9" max="9" width="77.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5278,7 +5283,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="391.5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>914</v>
       </c>
@@ -5361,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="345.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="324" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>916</v>
       </c>
@@ -5441,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>933</v>
       </c>
@@ -5524,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="259.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="243" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>934</v>
       </c>
@@ -5607,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="259.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="243" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>950</v>
       </c>
@@ -5687,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" ht="201.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="189" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>997</v>
       </c>
@@ -5767,7 +5772,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="201.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="189" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>998</v>
       </c>
@@ -5853,7 +5858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1000</v>
       </c>
@@ -5933,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1077</v>
       </c>
@@ -6016,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="108" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1078</v>
       </c>
@@ -6099,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1079</v>
       </c>
@@ -6185,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1534</v>
       </c>
@@ -6265,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1577</v>
       </c>
@@ -6345,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="244.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1958</v>
       </c>
@@ -6416,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="108" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>817</v>
       </c>
@@ -6484,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="374.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="351" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>917</v>
       </c>
@@ -6555,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="360" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="337.5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>918</v>
       </c>
@@ -6626,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>919</v>
       </c>
@@ -6697,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="172.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="162" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>920</v>
       </c>
@@ -6765,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>921</v>
       </c>
@@ -6839,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="360" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="337.5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>922</v>
       </c>
@@ -6910,7 +6915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>926</v>
       </c>
@@ -6990,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>927</v>
       </c>
@@ -7070,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="405" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>928</v>
       </c>
@@ -7153,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="374.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="351" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>929</v>
       </c>
@@ -7233,7 +7238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>930</v>
       </c>
@@ -7313,7 +7318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="187.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>931</v>
       </c>
@@ -7393,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="108" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>932</v>
       </c>
@@ -7473,7 +7478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="144" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>935</v>
       </c>
@@ -7553,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="216" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="189" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>949</v>
       </c>
@@ -7627,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>990</v>
       </c>
@@ -7710,7 +7715,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>992</v>
       </c>
@@ -7787,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>995</v>
       </c>
@@ -7867,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="201.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="189" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>996</v>
       </c>
@@ -7950,7 +7955,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1001</v>
       </c>
@@ -8021,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="331.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" ht="310.5" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1075</v>
       </c>
@@ -8098,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="54" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1084</v>
       </c>
@@ -8175,7 +8180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1192</v>
       </c>
@@ -8246,7 +8251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1208</v>
       </c>
@@ -8317,7 +8322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1232</v>
       </c>
@@ -8388,7 +8393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1233</v>
       </c>
@@ -8459,7 +8464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="302.39999999999998" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1234</v>
       </c>
@@ -8533,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="302.39999999999998" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="270" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1275</v>
       </c>
@@ -8604,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1278</v>
       </c>
@@ -8675,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1284</v>
       </c>
@@ -8746,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1287</v>
       </c>
@@ -8817,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1303</v>
       </c>
@@ -8888,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1418</v>
       </c>
@@ -8959,7 +8964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" ht="405" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1419</v>
       </c>
@@ -9027,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="403.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" ht="378" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1420</v>
       </c>
@@ -9098,7 +9103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>1421</v>
       </c>
@@ -9172,7 +9177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>1425</v>
       </c>
@@ -9246,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>1527</v>
       </c>
@@ -9317,7 +9322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="288" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" ht="270" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>1528</v>
       </c>
@@ -9385,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>1552</v>
       </c>
@@ -9459,7 +9464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>1639</v>
       </c>
@@ -9527,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>1640</v>
       </c>
@@ -9595,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>1661</v>
       </c>
@@ -9669,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="316.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" ht="283.5" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>1667</v>
       </c>
@@ -9740,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="302.39999999999998" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" ht="270" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>1668</v>
       </c>
@@ -9811,7 +9816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="201.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" ht="189" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>1670</v>
       </c>
@@ -9879,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="72" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>1867</v>
       </c>
@@ -9950,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>621</v>
       </c>
@@ -10024,7 +10029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34" ht="403.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" ht="378" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>987</v>
       </c>
@@ -10101,7 +10106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>988</v>
       </c>
@@ -10175,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34" ht="216" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>991</v>
       </c>
@@ -10252,7 +10257,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>1017</v>
       </c>
@@ -10329,7 +10334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34" ht="345.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" ht="324" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>1076</v>
       </c>
@@ -10403,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>1080</v>
       </c>
@@ -10480,7 +10485,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>1193</v>
       </c>
@@ -10554,7 +10559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>1194</v>
       </c>
@@ -10628,7 +10633,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>1230</v>
       </c>
@@ -10699,7 +10704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34" ht="409.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>1277</v>
       </c>
@@ -10770,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34" ht="316.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" ht="297" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>1669</v>
       </c>
@@ -10858,18 +10863,18 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="88.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="88.375" style="9" customWidth="1"/>
     <col min="3" max="4" width="9" style="9"/>
-    <col min="5" max="5" width="12.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="9" customWidth="1"/>
     <col min="6" max="8" width="9" style="9"/>
-    <col min="9" max="9" width="48.21875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="48.25" style="9" customWidth="1"/>
     <col min="10" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10898,7 +10903,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1958</v>
       </c>
@@ -10919,7 +10924,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>1867</v>
       </c>
@@ -10944,7 +10949,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>1667</v>
       </c>
@@ -10969,7 +10974,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>1668</v>
       </c>
@@ -10992,7 +10997,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>1670</v>
       </c>
@@ -11011,7 +11016,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:9" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>1669</v>
       </c>
@@ -11030,7 +11035,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:9" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>1661</v>
       </c>
@@ -11051,7 +11056,7 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>1639</v>
       </c>
@@ -11076,7 +11081,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>1640</v>
       </c>
@@ -11101,7 +11106,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>1577</v>
       </c>
@@ -11130,7 +11135,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:9" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>1552</v>
       </c>
@@ -11151,7 +11156,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>1527</v>
       </c>
@@ -11176,7 +11181,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>1528</v>
       </c>
@@ -11201,7 +11206,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>1534</v>
       </c>
@@ -11230,7 +11235,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:9" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>1421</v>
       </c>
@@ -11251,7 +11256,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>1418</v>
       </c>
@@ -11276,7 +11281,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>1419</v>
       </c>
@@ -11301,7 +11306,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="7">
         <v>1420</v>
       </c>
@@ -11326,7 +11331,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>1425</v>
       </c>
@@ -11353,7 +11358,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>1303</v>
       </c>
@@ -11378,7 +11383,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>1287</v>
       </c>
@@ -11403,7 +11408,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>933</v>
       </c>
@@ -11426,7 +11431,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>934</v>
       </c>
@@ -11449,7 +11454,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>1284</v>
       </c>
@@ -11472,7 +11477,7 @@
       </c>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>1275</v>
       </c>
@@ -11491,7 +11496,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>1278</v>
       </c>
@@ -11514,7 +11519,7 @@
       </c>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>1277</v>
       </c>
@@ -11537,7 +11542,7 @@
       </c>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>1232</v>
       </c>
@@ -11560,7 +11565,7 @@
       </c>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:11" ht="31.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>1233</v>
       </c>
@@ -11585,7 +11590,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>1234</v>
       </c>
@@ -11610,7 +11615,7 @@
       </c>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>1230</v>
       </c>
@@ -11641,7 +11646,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="7">
         <v>1208</v>
       </c>
@@ -11669,7 +11674,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="34" spans="1:11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>997</v>
       </c>
@@ -11692,7 +11697,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="7">
         <v>1192</v>
       </c>
@@ -11717,7 +11722,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
         <v>1193</v>
       </c>
@@ -11742,7 +11747,7 @@
       </c>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="7">
         <v>1194</v>
       </c>
@@ -11767,7 +11772,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="7">
         <v>1084</v>
       </c>
@@ -11794,7 +11799,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="7">
         <v>1080</v>
       </c>
@@ -11819,7 +11824,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="7">
         <v>1077</v>
       </c>
@@ -11848,7 +11853,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>1078</v>
       </c>
@@ -11875,7 +11880,7 @@
       </c>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="7">
         <v>1079</v>
       </c>
@@ -11902,7 +11907,7 @@
       </c>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="7">
         <v>1076</v>
       </c>
@@ -11923,7 +11928,7 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="7">
         <v>1075</v>
       </c>
@@ -11950,7 +11955,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="45" spans="1:11" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>996</v>
       </c>
@@ -11971,7 +11976,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="7">
         <v>1017</v>
       </c>
@@ -11994,7 +11999,7 @@
       </c>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="7">
         <v>1000</v>
       </c>
@@ -12021,7 +12026,7 @@
       </c>
       <c r="I47" s="7"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="7">
         <v>1001</v>
       </c>
@@ -12046,7 +12051,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="7">
         <v>998</v>
       </c>
@@ -12073,7 +12078,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="7">
         <v>995</v>
       </c>
@@ -12100,7 +12105,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="7">
         <v>990</v>
       </c>
@@ -12125,7 +12130,7 @@
       </c>
       <c r="I51" s="7"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="7">
         <v>992</v>
       </c>
@@ -12150,7 +12155,7 @@
       </c>
       <c r="I52" s="7"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="7">
         <v>991</v>
       </c>
@@ -12175,7 +12180,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="7">
         <v>987</v>
       </c>
@@ -12202,7 +12207,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="7">
         <v>988</v>
       </c>
@@ -12225,7 +12230,7 @@
       </c>
       <c r="I55" s="7"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="7">
         <v>950</v>
       </c>
@@ -12254,7 +12259,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="7">
         <v>949</v>
       </c>
@@ -12279,7 +12284,7 @@
       </c>
       <c r="I57" s="7"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="7">
         <v>926</v>
       </c>
@@ -12306,7 +12311,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="7">
         <v>927</v>
       </c>
@@ -12333,7 +12338,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="7">
         <v>928</v>
       </c>
@@ -12360,7 +12365,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="7">
         <v>929</v>
       </c>
@@ -12387,7 +12392,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="7">
         <v>930</v>
       </c>
@@ -12414,7 +12419,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="7">
         <v>931</v>
       </c>
@@ -12439,7 +12444,7 @@
       </c>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="7">
         <v>932</v>
       </c>
@@ -12464,7 +12469,7 @@
       </c>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="7">
         <v>935</v>
       </c>
@@ -12491,7 +12496,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="47.4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="48" x14ac:dyDescent="0.15">
       <c r="A66" s="7">
         <v>917</v>
       </c>
@@ -12516,7 +12521,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="7">
         <v>920</v>
       </c>
@@ -12541,7 +12546,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="7">
         <v>922</v>
       </c>
@@ -12562,7 +12567,7 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
     </row>
-    <row r="69" spans="1:9" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
         <v>918</v>
       </c>
@@ -12581,7 +12586,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:9" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
         <v>919</v>
       </c>
@@ -12600,7 +12605,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="7">
         <v>914</v>
       </c>
@@ -12625,7 +12630,7 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="7">
         <v>916</v>
       </c>
@@ -12650,7 +12655,7 @@
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="7">
         <v>921</v>
       </c>
@@ -12673,7 +12678,7 @@
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
     </row>
-    <row r="74" spans="1:9" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <v>817</v>
       </c>
@@ -12692,7 +12697,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="7">
         <v>621</v>
       </c>
@@ -12752,286 +12757,286 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>278</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>279</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E2" s="3">
         <v>3</v>
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E3" s="3">
         <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="20">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="20">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -13046,181 +13051,166 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>278</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>279</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B4" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="E2" s="3">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E3" s="3">
-        <v>60</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>297</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>298</v>
@@ -13228,86 +13218,91 @@
       <c r="D10" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E10" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E12">
+    <sortState ref="A2:E12">
+      <sortCondition descending="1" ref="D1:D12"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>278</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>288</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>289</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="15">
@@ -13315,84 +13310,84 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="14"/>
       <c r="D3" s="15"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="15"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -13408,29 +13403,29 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="9"/>
-    <col min="5" max="5" width="9.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="9"/>
-    <col min="9" max="9" width="5.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="18" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -13453,13 +13448,13 @@
         <v>27</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -13470,7 +13465,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -13481,7 +13476,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -13492,7 +13487,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -13503,7 +13498,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -13514,7 +13509,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -13525,7 +13520,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -13536,7 +13531,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -13547,7 +13542,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -13558,7 +13553,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -13569,7 +13564,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -13580,7 +13575,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -13591,7 +13586,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -13602,7 +13597,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -13613,7 +13608,7 @@
       <c r="H15" s="7"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -13624,7 +13619,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -13635,7 +13630,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -13646,7 +13641,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -13657,7 +13652,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>

--- a/平台产品基线/现场总管基线产品-测试方案.xlsx
+++ b/平台产品基线/现场总管基线产品-测试方案.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="11835" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="作业许可-需求原件" sheetId="2" r:id="rId1"/>
@@ -10859,8 +10859,8 @@
   </sheetPr>
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -13055,7 +13055,7 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -13272,7 +13272,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13306,7 +13306,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="15">
-        <v>44058</v>
+        <v>44074</v>
       </c>
       <c r="E2" s="3"/>
     </row>

--- a/平台产品基线/现场总管基线产品-测试方案.xlsx
+++ b/平台产品基线/现场总管基线产品-测试方案.xlsx
@@ -21,14 +21,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">开发负责人!$A$1:$E$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'作业许可-需求列表'!$A$1:$G$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'作业许可-需求列表'!$A$1:$I$75</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="330">
   <si>
     <t>编号</t>
   </si>
@@ -3745,10 +3745,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>失败</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>作业任务无法选择“安装/拆除位置”</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3965,18 +3961,6 @@
     <t>实际结果</t>
   </si>
   <si>
-    <t>功能需求数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能详情</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>《现场总管基线产品-作业许可-需求列表》</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>系统公共</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4102,6 +4086,34 @@
   </si>
   <si>
     <t>承包商自主培训</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要升级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>原租户，新租户</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>元数据升级状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码升级状态</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已升级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒烟结果</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4301,7 +4313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4484,6 +4496,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4758,7 +4782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4822,6 +4846,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4867,7 +4897,27 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10860,7 +10910,7 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -10946,7 +10996,7 @@
         <v>239</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -10971,7 +11021,7 @@
         <v>239</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -11075,10 +11125,10 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -11100,10 +11150,10 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -11129,10 +11179,10 @@
         <v>45</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -11175,10 +11225,10 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -11200,10 +11250,10 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -11229,10 +11279,10 @@
         <v>45</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:9" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -11275,10 +11325,10 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
@@ -11300,10 +11350,10 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
@@ -11325,10 +11375,10 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
@@ -11336,7 +11386,7 @@
         <v>1425</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>86</v>
@@ -11352,18 +11402,18 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7">
         <v>1303</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>86</v>
@@ -11380,15 +11430,15 @@
         <v>236</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7">
         <v>1287</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>86</v>
@@ -11405,7 +11455,7 @@
         <v>242</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -11430,6 +11480,9 @@
       <c r="G23" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="H23" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
@@ -11453,8 +11506,11 @@
       <c r="G24" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="H24" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7">
         <v>1284</v>
       </c>
@@ -11496,7 +11552,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7">
         <v>1278</v>
       </c>
@@ -11519,7 +11575,7 @@
       </c>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7">
         <v>1277</v>
       </c>
@@ -11542,7 +11598,7 @@
       </c>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7">
         <v>1232</v>
       </c>
@@ -11565,7 +11621,7 @@
       </c>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:11" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" ht="31.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7">
         <v>1233</v>
       </c>
@@ -11583,14 +11639,14 @@
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="11" t="s">
-        <v>243</v>
+      <c r="H30" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7">
         <v>1234</v>
       </c>
@@ -11615,7 +11671,7 @@
       </c>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7">
         <v>1230</v>
       </c>
@@ -11633,17 +11689,17 @@
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="11" t="s">
-        <v>239</v>
+      <c r="H32" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>241</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
@@ -11671,7 +11727,7 @@
         <v>238</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -11694,6 +11750,9 @@
         <v>43</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -11722,7 +11781,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
         <v>1193</v>
       </c>
@@ -11747,7 +11806,7 @@
       </c>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7">
         <v>1194</v>
       </c>
@@ -11853,7 +11912,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7">
         <v>1078</v>
       </c>
@@ -11880,7 +11939,7 @@
       </c>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7">
         <v>1079</v>
       </c>
@@ -11952,7 +12011,7 @@
         <v>239</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:11" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -11976,7 +12035,7 @@
       </c>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7">
         <v>1017</v>
       </c>
@@ -12022,7 +12081,7 @@
         <v>45</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I47" s="7"/>
     </row>
@@ -12048,7 +12107,7 @@
         <v>239</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -12075,7 +12134,7 @@
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -12102,10 +12161,10 @@
         <v>239</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7">
         <v>990</v>
       </c>
@@ -12130,7 +12189,7 @@
       </c>
       <c r="I51" s="7"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7">
         <v>992</v>
       </c>
@@ -12177,10 +12236,10 @@
         <v>239</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7">
         <v>987</v>
       </c>
@@ -12201,13 +12260,13 @@
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I54" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I54" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7">
         <v>988</v>
       </c>
@@ -12226,7 +12285,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I55" s="7"/>
     </row>
@@ -12256,10 +12315,10 @@
         <v>239</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="7">
         <v>949</v>
       </c>
@@ -12280,7 +12339,7 @@
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I57" s="7"/>
     </row>
@@ -12308,7 +12367,7 @@
         <v>239</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
@@ -12335,7 +12394,7 @@
         <v>239</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
@@ -12362,7 +12421,7 @@
         <v>239</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
@@ -12389,10 +12448,10 @@
         <v>239</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="7">
         <v>930</v>
       </c>
@@ -12413,13 +12472,13 @@
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="I62" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="I62" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7">
         <v>931</v>
       </c>
@@ -12444,7 +12503,7 @@
       </c>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="7">
         <v>932</v>
       </c>
@@ -12493,7 +12552,7 @@
         <v>239</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="48" x14ac:dyDescent="0.15">
@@ -12518,7 +12577,7 @@
         <v>239</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
@@ -12543,7 +12602,7 @@
         <v>239</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
@@ -12719,7 +12778,7 @@
       <c r="I75" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G75">
+  <autoFilter ref="A1:I75">
     <filterColumn colId="3">
       <filters>
         <filter val="研发完毕"/>
@@ -12728,24 +12787,22 @@
         <filter val="已立项"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <filters blank="1">
-        <filter val="已完成"/>
-        <filter val="已细分"/>
+        <filter val="失败"/>
+        <filter val="未执行"/>
+        <filter val="阻塞"/>
       </filters>
     </filterColumn>
-    <sortState ref="A3:G75">
-      <sortCondition descending="1" ref="E1:E75"/>
-    </sortState>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="H1:H3 H5:H1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="H1:H3 H5:H22 H25:H33 H35:H1048576">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"失败"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"失败"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12759,287 +12816,329 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>279</v>
-      </c>
       <c r="D1" s="13" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+        <v>327</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>295</v>
+        <v>324</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>291</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3</v>
+        <v>302</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>280</v>
+        <v>324</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>279</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E3" s="3">
-        <v>60</v>
+        <v>301</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+        <v>328</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>282</v>
+        <v>324</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>281</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>283</v>
+        <v>324</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>282</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+        <v>313</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>284</v>
+        <v>324</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>283</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>296</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>325</v>
+      </c>
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>284</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>296</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>325</v>
+      </c>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>286</v>
+        <v>324</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>285</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+        <v>299</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C9" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>325</v>
+      </c>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>323</v>
+      </c>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>298</v>
+        <v>324</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>294</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>297</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>323</v>
+      </c>
       <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>299</v>
+        <v>324</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>295</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>296</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>325</v>
+      </c>
       <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>311</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="20">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C15" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="20">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -13056,7 +13155,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13068,19 +13167,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>279</v>
-      </c>
       <c r="D1" s="13" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -13088,13 +13187,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -13103,13 +13202,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -13118,13 +13217,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -13133,13 +13232,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -13148,13 +13247,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -13163,13 +13262,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -13178,13 +13277,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -13193,16 +13292,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -13210,16 +13309,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -13227,13 +13326,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -13242,13 +13341,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -13282,16 +13381,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>287</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>288</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>231</v>
@@ -13302,7 +13401,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="15">
@@ -13448,10 +13547,10 @@
         <v>27</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">

--- a/平台产品基线/现场总管基线产品-测试方案.xlsx
+++ b/平台产品基线/现场总管基线产品-测试方案.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="11835" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="作业许可-需求原件" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="开发负责人" sheetId="6" r:id="rId4"/>
     <sheet name="时间计划" sheetId="5" r:id="rId5"/>
     <sheet name="附表" sheetId="4" r:id="rId6"/>
+    <sheet name="元数据与代码" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">开发负责人!$A$1:$E$12</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="388">
   <si>
     <t>编号</t>
   </si>
@@ -4113,7 +4114,239 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>冒烟结果</t>
+    <t>开发</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hse</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cbs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>csc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>insp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>trn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>phd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hsm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号：3.0.20.20200725</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>元数据最后升级时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期：2020-08-17 13:26</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号：3.0.20.20200831</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期：2020-08-20 14:55</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号：3.0.20.20200831</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期：2020-08-18 10:28</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号：3.0.20.20200830</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期：2020-07-24 23:00</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号：3.0.20.20200831</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发负责人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期：2020-08-20 16:33</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号：3.0.20.20200831</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期：2020-08-19 10:50</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>App</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号：3.0.20.20200831</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期：2020-07-28 15:20</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期：2020-08-20 16:33</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub-base</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期：2020-08-12 16:22</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹斌臣</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭志恒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码版本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后更新时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘冠宁</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hap-sy-all</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin/3.0.20.20200430</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #178 (2020-8-18 15:38:34)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin/3.0.20.20200831</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #233 (2020-8-14 11:41:30)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #183 (2020-8-18 17:09:44)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #183 (2020-8-18 17:09:32)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #178 (2020-8-10 16:31:12)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>origin/3.0.20.20200520</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #222 (2020-8-12 17:09:58)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #200 (2020-7-27 14:10:43)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #187 (2020-8-10 16:30:51)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #191 (2020-8-12 16:08:52)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期：2020-08-21 10:35</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #169 (2020-5-14 12:35:50)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #180 (2020-5-14 12:37:07)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> com.hayden.hap.fv.cloud_01.20.0820_yunTestLinux_release.apk </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #223 (2020-8-20 15:54:36)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4313,7 +4546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4511,8 +4744,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -4653,6 +4892,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4782,7 +5058,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4852,6 +5128,24 @@
     <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4897,27 +5191,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4949,6 +5223,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2284757</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>5200001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="2714625"/>
+          <a:ext cx="9942857" cy="5190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10909,8 +11226,8 @@
   </sheetPr>
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -12797,12 +13114,12 @@
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="H1:H3 H5:H22 H25:H33 H35:H1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"失败"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"失败"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12816,10 +13133,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12832,7 +13149,7 @@
     <col min="6" max="6" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>277</v>
       </c>
@@ -12854,8 +13171,11 @@
       <c r="G1" s="13" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H1" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -12873,8 +13193,11 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H2" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -12894,8 +13217,11 @@
         <v>328</v>
       </c>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H3" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -12915,8 +13241,11 @@
         <v>328</v>
       </c>
       <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H4" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -12936,8 +13265,11 @@
         <v>328</v>
       </c>
       <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H5" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -12953,10 +13285,17 @@
       <c r="E6" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F6" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -12972,10 +13311,17 @@
       <c r="E7" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F7" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -12995,8 +13341,11 @@
         <v>328</v>
       </c>
       <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H8" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -13012,10 +13361,15 @@
       <c r="E9" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F9" s="23"/>
+      <c r="G9" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -13033,8 +13387,9 @@
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -13052,8 +13407,9 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -13069,10 +13425,13 @@
       <c r="E12" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="F12" s="23"/>
+      <c r="G12" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -13088,8 +13447,9 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -13105,8 +13465,9 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -13122,8 +13483,9 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -13139,6 +13501,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -13155,7 +13518,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13766,4 +14129,400 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="26.875" customWidth="1"/>
+    <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="I10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C13:G13"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/平台产品基线/现场总管基线产品-测试方案.xlsx
+++ b/平台产品基线/现场总管基线产品-测试方案.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="448">
   <si>
     <t>编号</t>
   </si>
@@ -4162,191 +4162,426 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>版本号：3.0.20.20200831</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号：3.0.20.20200831</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期：2020-08-18 10:28</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号：3.0.20.20200830</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期：2020-07-24 23:00</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号：3.0.20.20200831</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发负责人</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期：2020-08-20 16:33</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号：3.0.20.20200831</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期：2020-08-19 10:50</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>App</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号：3.0.20.20200831</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期：2020-08-20 16:33</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub-base</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期：2020-08-12 16:22</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>尹斌臣</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭志恒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后更新时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘冠宁</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #178 (2020-8-10 16:31:12)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #222 (2020-8-12 17:09:58)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #187 (2020-8-10 16:30:51)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>risk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期：2020-08-21 10:35</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #169 (2020-5-14 12:35:50)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #180 (2020-5-14 12:37:07)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期：2020-08-21 11:55</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期：2020-08-25 16:26</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #173 (2020-8-25 16:04:56)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.20.20200430</t>
+  </si>
+  <si>
+    <t>3.0.20.20200831</t>
+  </si>
+  <si>
+    <t>3.0.20.20200520</t>
+  </si>
+  <si>
+    <t>设备</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC-代码版本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-代码版本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.20.20200430</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #172 (2020-7-28 10:10:58)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-eam</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m代码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #225 (2020-8-25 13:51:17)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #184 (2020-8-18 17:15:24)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #185 (2020-8-25 10:08:16)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #177 (2020-8-10 16:37:03)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #201 (2020-8-10 16:37:22)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.20.20200520</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>masternew</t>
+  </si>
+  <si>
+    <t>masternew</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #178 (2020-7-27 14:18:56)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.20.20200831</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #186 (2020-8-21 18:38:25)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>masternew</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #176 (2020-8-25 14:48:13)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> com.hayden.hap.fv.cloud_01.20.0825_yunTestLinux_release.apk </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-sy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-hse</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-cbs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-csc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-insp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-trn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-phd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-hsm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-pub-base</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>更新日期：2020-08-17 13:26</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>版本号：3.0.20.20200831</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期：2020-08-20 14:55</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号：3.0.20.20200831</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期：2020-08-18 10:28</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号：3.0.20.20200830</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期：2020-07-24 23:00</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号：3.0.20.20200831</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发负责人</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期：2020-08-20 16:33</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号：3.0.20.20200831</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期：2020-08-19 10:50</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>App</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号：3.0.20.20200831</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期：2020-07-28 15:20</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期：2020-08-20 16:33</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>pub-base</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期：2020-08-12 16:22</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>尹斌臣</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭志恒</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码版本</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后更新时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘冠宁</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hap-sy-all</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>origin/3.0.20.20200430</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Build #178 (2020-8-18 15:38:34)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>origin/3.0.20.20200831</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build #233 (2020-8-14 11:41:30)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build #183 (2020-8-18 17:09:44)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build #183 (2020-8-18 17:09:32)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build #178 (2020-8-10 16:31:12)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>origin/3.0.20.20200520</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build #222 (2020-8-12 17:09:58)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build #200 (2020-7-27 14:10:43)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build #187 (2020-8-10 16:30:51)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build #191 (2020-8-12 16:08:52)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>risk</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>collect</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期：2020-08-21 10:35</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build #169 (2020-5-14 12:35:50)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build #180 (2020-5-14 12:37:07)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> com.hayden.hap.fv.cloud_01.20.0820_yunTestLinux_release.apk </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Build #223 (2020-8-20 15:54:36)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>Build #237 (2020-8-21 18:45:38)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #185 (2020-8-24 9:35:02)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #186 (2020-8-24 18:21:30)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>masternew</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #201 (2020-8-25 14:42:14)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>masternew</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #192 (2020-8-25 14:31:28)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.20.20200430</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #177 (2020-8-12 14:48:37)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>manager</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.20.20200509</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #171 (2020-7-28 9:42:21)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #180 (2020-5-14 12:26:35)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rqreport</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.20.20200430</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #174 (2020-7-28 9:43:14)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>passsport</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>portal</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #174 (2020-7-28 9:43:27)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>smart</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #177 (2020-7-20 15:50:45)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.20.20200509</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #168 (2020-5-14 12:37:33)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kpi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>Build #168 (2020-4-24 10:18:04)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #171 (2020-5-14 12:27:57)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wtask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.20.20200430</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #170 (2020-5-14 12:28:42)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-passport</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #175 (2020-7-28 10:10:45)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-msg</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #171 (2020-7-28 10:11:11)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.20.20200430</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-wtask</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build #170 (2020-5-14 12:42:02)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4354,7 +4589,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4544,6 +4779,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="37">
@@ -5058,7 +5306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5146,6 +5394,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5230,14 +5490,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2284757</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>322607</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>5200001</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14134,27 +14394,31 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="26.875" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="10" max="10" width="18.75" customWidth="1"/>
+    <col min="11" max="11" width="33.5" customWidth="1"/>
+    <col min="12" max="12" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>277</v>
       </c>
@@ -14162,111 +14426,145 @@
         <v>278</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>340</v>
-      </c>
       <c r="G1" s="19" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+        <v>384</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>341</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+        <v>409</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+        <v>410</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -14274,26 +14572,35 @@
         <v>282</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -14301,26 +14608,35 @@
         <v>283</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>351</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+        <v>363</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -14328,53 +14644,71 @@
         <v>284</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>353</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+        <v>364</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>357</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+        <v>414</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -14382,143 +14716,415 @@
         <v>292</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>358</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="I9" s="24"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+        <v>365</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="L9" s="24"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>362</v>
+      <c r="D10" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>356</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="I10" s="24"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>380</v>
+      <c r="C11" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>387</v>
+        <v>371</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>366</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>381</v>
+      <c r="C12" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>382</v>
+        <v>368</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>367</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+        <v>370</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
+        <v>378</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="H13" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>418</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>355</v>
-      </c>
+      <c r="B14" s="20"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="F14" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="31" t="s">
+        <v>434</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="24"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="24"/>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>23</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7">
+        <v>24</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C23:L23"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
